--- a/data/stock_list.xlsx
+++ b/data/stock_list.xlsx
@@ -1,37 +1,633 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Python\VibeCoding\stock_screener_openspec_new\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CCFBA7-D347-4E70-A73B-CCE2EED2F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>600519</t>
+  </si>
+  <si>
+    <t>000858</t>
+  </si>
+  <si>
+    <t>600036</t>
+  </si>
+  <si>
+    <t>688392.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>688233</t>
+  </si>
+  <si>
+    <t>688585</t>
+  </si>
+  <si>
+    <t>301209</t>
+  </si>
+  <si>
+    <t>301148</t>
+  </si>
+  <si>
+    <t>300666</t>
+  </si>
+  <si>
+    <t>300270</t>
+  </si>
+  <si>
+    <t>688545</t>
+  </si>
+  <si>
+    <t>688403</t>
+  </si>
+  <si>
+    <t>688082</t>
+  </si>
+  <si>
+    <t>300421</t>
+  </si>
+  <si>
+    <t>300774</t>
+  </si>
+  <si>
+    <t>688160</t>
+  </si>
+  <si>
+    <t>688559</t>
+  </si>
+  <si>
+    <t>688312</t>
+  </si>
+  <si>
+    <t>688120</t>
+  </si>
+  <si>
+    <t>688290</t>
+  </si>
+  <si>
+    <t>688141</t>
+  </si>
+  <si>
+    <t>300346</t>
+  </si>
+  <si>
+    <t>688652</t>
+  </si>
+  <si>
+    <t>688380</t>
+  </si>
+  <si>
+    <t>301256</t>
+  </si>
+  <si>
+    <t>688019</t>
+  </si>
+  <si>
+    <t>688409</t>
+  </si>
+  <si>
+    <t>688210</t>
+  </si>
+  <si>
+    <t>688038</t>
+  </si>
+  <si>
+    <t>688361</t>
+  </si>
+  <si>
+    <t>688037</t>
+  </si>
+  <si>
+    <t>688392</t>
+  </si>
+  <si>
+    <t>301360</t>
+  </si>
+  <si>
+    <t>301396</t>
+  </si>
+  <si>
+    <t>688503</t>
+  </si>
+  <si>
+    <t>301093</t>
+  </si>
+  <si>
+    <t>688507</t>
+  </si>
+  <si>
+    <t>300236</t>
+  </si>
+  <si>
+    <t>688072</t>
+  </si>
+  <si>
+    <t>688631</t>
+  </si>
+  <si>
+    <t>688516</t>
+  </si>
+  <si>
+    <t>300854</t>
+  </si>
+  <si>
+    <t>688373</t>
+  </si>
+  <si>
+    <t>300604</t>
+  </si>
+  <si>
+    <t>301629</t>
+  </si>
+  <si>
+    <t>300379</t>
+  </si>
+  <si>
+    <t>688206</t>
+  </si>
+  <si>
+    <t>300001</t>
+  </si>
+  <si>
+    <t>688660</t>
+  </si>
+  <si>
+    <t>301161</t>
+  </si>
+  <si>
+    <t>688126</t>
+  </si>
+  <si>
+    <t>688200</t>
+  </si>
+  <si>
+    <t>301229</t>
+  </si>
+  <si>
+    <t>300128</t>
+  </si>
+  <si>
+    <t>688012</t>
+  </si>
+  <si>
+    <t>300893</t>
+  </si>
+  <si>
+    <t>300115</t>
+  </si>
+  <si>
+    <t>301086</t>
+  </si>
+  <si>
+    <t>688330</t>
+  </si>
+  <si>
+    <t>688332</t>
+  </si>
+  <si>
+    <t>300836</t>
+  </si>
+  <si>
+    <t>300250</t>
+  </si>
+  <si>
+    <t>301319</t>
+  </si>
+  <si>
+    <t>301052</t>
+  </si>
+  <si>
+    <t>300111</t>
+  </si>
+  <si>
+    <t>688679</t>
+  </si>
+  <si>
+    <t>301178</t>
+  </si>
+  <si>
+    <t>688123</t>
+  </si>
+  <si>
+    <t>688228</t>
+  </si>
+  <si>
+    <t>301338</t>
+  </si>
+  <si>
+    <t>688698</t>
+  </si>
+  <si>
+    <t>301117</t>
+  </si>
+  <si>
+    <t>300493</t>
+  </si>
+  <si>
+    <t>300400</t>
+  </si>
+  <si>
+    <t>688678</t>
+  </si>
+  <si>
+    <t>688171</t>
+  </si>
+  <si>
+    <t>301512</t>
+  </si>
+  <si>
+    <t>301095</t>
+  </si>
+  <si>
+    <t>688381</t>
+  </si>
+  <si>
+    <t>688339</t>
+  </si>
+  <si>
+    <t>301227</t>
+  </si>
+  <si>
+    <t>688215</t>
+  </si>
+  <si>
+    <t>301133</t>
+  </si>
+  <si>
+    <t>688360</t>
+  </si>
+  <si>
+    <t>301391</t>
+  </si>
+  <si>
+    <t>300501</t>
+  </si>
+  <si>
+    <t>300620</t>
+  </si>
+  <si>
+    <t>688607</t>
+  </si>
+  <si>
+    <t>688195</t>
+  </si>
+  <si>
+    <t>688135</t>
+  </si>
+  <si>
+    <t>301013</t>
+  </si>
+  <si>
+    <t>300959</t>
+  </si>
+  <si>
+    <t>300539</t>
+  </si>
+  <si>
+    <t>300092</t>
+  </si>
+  <si>
+    <t>300004</t>
+  </si>
+  <si>
+    <t>688778</t>
+  </si>
+  <si>
+    <t>688766</t>
+  </si>
+  <si>
+    <t>688662</t>
+  </si>
+  <si>
+    <t>688638</t>
+  </si>
+  <si>
+    <t>688629</t>
+  </si>
+  <si>
+    <t>688627</t>
+  </si>
+  <si>
+    <t>688613</t>
+  </si>
+  <si>
+    <t>688593</t>
+  </si>
+  <si>
+    <t>688577</t>
+  </si>
+  <si>
+    <t>688521</t>
+  </si>
+  <si>
+    <t>688499</t>
+  </si>
+  <si>
+    <t>688498</t>
+  </si>
+  <si>
+    <t>688411</t>
+  </si>
+  <si>
+    <t>688388</t>
+  </si>
+  <si>
+    <t>688353</t>
+  </si>
+  <si>
+    <t>688345</t>
+  </si>
+  <si>
+    <t>688335</t>
+  </si>
+  <si>
+    <t>688325</t>
+  </si>
+  <si>
+    <t>688279</t>
+  </si>
+  <si>
+    <t>688234</t>
+  </si>
+  <si>
+    <t>688205</t>
+  </si>
+  <si>
+    <t>688203</t>
+  </si>
+  <si>
+    <t>688170</t>
+  </si>
+  <si>
+    <t>688167</t>
+  </si>
+  <si>
+    <t>688147</t>
+  </si>
+  <si>
+    <t>688128</t>
+  </si>
+  <si>
+    <t>688081</t>
+  </si>
+  <si>
+    <t>688062</t>
+  </si>
+  <si>
+    <t>688041</t>
+  </si>
+  <si>
+    <t>688028</t>
+  </si>
+  <si>
+    <t>688006</t>
+  </si>
+  <si>
+    <t>301608</t>
+  </si>
+  <si>
+    <t>301600</t>
+  </si>
+  <si>
+    <t>301538</t>
+  </si>
+  <si>
+    <t>301489</t>
+  </si>
+  <si>
+    <t>301446</t>
+  </si>
+  <si>
+    <t>301421</t>
+  </si>
+  <si>
+    <t>301413</t>
+  </si>
+  <si>
+    <t>301379</t>
+  </si>
+  <si>
+    <t>301377</t>
+  </si>
+  <si>
+    <t>301307</t>
+  </si>
+  <si>
+    <t>301225</t>
+  </si>
+  <si>
+    <t>301222</t>
+  </si>
+  <si>
+    <t>301193</t>
+  </si>
+  <si>
+    <t>301150</t>
+  </si>
+  <si>
+    <t>301139</t>
+  </si>
+  <si>
+    <t>301125</t>
+  </si>
+  <si>
+    <t>301123</t>
+  </si>
+  <si>
+    <t>301076</t>
+  </si>
+  <si>
+    <t>301043</t>
+  </si>
+  <si>
+    <t>301042</t>
+  </si>
+  <si>
+    <t>301031</t>
+  </si>
+  <si>
+    <t>301008</t>
+  </si>
+  <si>
+    <t>301000</t>
+  </si>
+  <si>
+    <t>300997</t>
+  </si>
+  <si>
+    <t>300993</t>
+  </si>
+  <si>
+    <t>300969</t>
+  </si>
+  <si>
+    <t>300950</t>
+  </si>
+  <si>
+    <t>300852</t>
+  </si>
+  <si>
+    <t>300827</t>
+  </si>
+  <si>
+    <t>300801</t>
+  </si>
+  <si>
+    <t>300772</t>
+  </si>
+  <si>
+    <t>300763</t>
+  </si>
+  <si>
+    <t>300697</t>
+  </si>
+  <si>
+    <t>300661</t>
+  </si>
+  <si>
+    <t>300619</t>
+  </si>
+  <si>
+    <t>300528</t>
+  </si>
+  <si>
+    <t>300507</t>
+  </si>
+  <si>
+    <t>300486</t>
+  </si>
+  <si>
+    <t>300478</t>
+  </si>
+  <si>
+    <t>300476</t>
+  </si>
+  <si>
+    <t>300475</t>
+  </si>
+  <si>
+    <t>300465</t>
+  </si>
+  <si>
+    <t>300457</t>
+  </si>
+  <si>
+    <t>300450</t>
+  </si>
+  <si>
+    <t>300410</t>
+  </si>
+  <si>
+    <t>300390</t>
+  </si>
+  <si>
+    <t>300331</t>
+  </si>
+  <si>
+    <t>300324</t>
+  </si>
+  <si>
+    <t>300277</t>
+  </si>
+  <si>
+    <t>300252</t>
+  </si>
+  <si>
+    <t>300237</t>
+  </si>
+  <si>
+    <t>300209</t>
+  </si>
+  <si>
+    <t>300126</t>
+  </si>
+  <si>
+    <t>300049</t>
+  </si>
+  <si>
+    <t>300043</t>
+  </si>
+  <si>
+    <t>300013</t>
+  </si>
+  <si>
+    <t>300007</t>
+  </si>
+  <si>
+    <t>stock_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +642,266 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{1E644BC6-57B9-44CD-A0F0-6E77454D0ECE}"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{50141FAF-2756-4F70-847A-F426F2435754}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{8268E153-66B1-4C62-A656-50A778195350}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,62 +1189,969 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819ECE9-7F3F-42A4-9416-D56F18748CCC}">
+  <dimension ref="A1:A180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_code</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>600000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>600519</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>000858</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>600036</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>